--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MyData/Sunbeam/2024/mar/dmc/ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824856D2-8B97-7842-A8C6-3AC35E3636FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F68F9-106D-0943-BD6F-5FBA16F85AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{B97E78EE-7FEF-FB4E-88A4-5B4AE491459B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="extensions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>Feature</t>
   </si>
@@ -113,14 +114,349 @@
   </si>
   <si>
     <t>UITextField</t>
+  </si>
+  <si>
+    <t>application configuration</t>
+  </si>
+  <si>
+    <t>AndroidManifest.xml</t>
+  </si>
+  <si>
+    <t>Info.plist</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>xcode project</t>
+  </si>
+  <si>
+    <t>.xcodeproj</t>
+  </si>
+  <si>
+    <t>.storyboard</t>
+  </si>
+  <si>
+    <t>storyboard file</t>
+  </si>
+  <si>
+    <t>.plist</t>
+  </si>
+  <si>
+    <t>property list (xml file)</t>
+  </si>
+  <si>
+    <t>.xcassets</t>
+  </si>
+  <si>
+    <t>xcode assets file (contains images of multiple resolutions)</t>
+  </si>
+  <si>
+    <t>.swift</t>
+  </si>
+  <si>
+    <t>swift file</t>
+  </si>
+  <si>
+    <t>.h</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>.m</t>
+  </si>
+  <si>
+    <t>objective-c implementation</t>
+  </si>
+  <si>
+    <t>.lproj</t>
+  </si>
+  <si>
+    <t>directory which contains localized strings</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Widgets</t>
+  </si>
+  <si>
+    <t>UI controls</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>UIButton</t>
+  </si>
+  <si>
+    <t>list representation</t>
+  </si>
+  <si>
+    <t>ListView, RecyclerView</t>
+  </si>
+  <si>
+    <t>UITableView</t>
+  </si>
+  <si>
+    <t>grid represenation</t>
+  </si>
+  <si>
+    <t>GridView</t>
+  </si>
+  <si>
+    <t>UICollectionView</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>Spinner</t>
+  </si>
+  <si>
+    <t>UIPicker</t>
+  </si>
+  <si>
+    <t>date selection</t>
+  </si>
+  <si>
+    <t>DatePicker, DatePickerDialog</t>
+  </si>
+  <si>
+    <t>UIDatePicker</t>
+  </si>
+  <si>
+    <t>time selection</t>
+  </si>
+  <si>
+    <t>TimePicker, TimePickerDialog</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>radio button</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>UISwitch</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>UISlider</t>
+  </si>
+  <si>
+    <t>tab bar</t>
+  </si>
+  <si>
+    <t>TabLayout</t>
+  </si>
+  <si>
+    <t>UITabbar, UITabbarController</t>
+  </si>
+  <si>
+    <t>action bar</t>
+  </si>
+  <si>
+    <t>ActionBar</t>
+  </si>
+  <si>
+    <t>UINavigationBar, UINavigationController</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t>UIActivityIndicator</t>
+  </si>
+  <si>
+    <t>UIProgressView</t>
+  </si>
+  <si>
+    <t>progress view</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>stepper</t>
+  </si>
+  <si>
+    <t>UIStepper</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>LinearLayour</t>
+  </si>
+  <si>
+    <t>UIStackView</t>
+  </si>
+  <si>
+    <t>scroll view</t>
+  </si>
+  <si>
+    <t>ScrollView</t>
+  </si>
+  <si>
+    <t>UIScrollView</t>
+  </si>
+  <si>
+    <t>segmented control</t>
+  </si>
+  <si>
+    <t>UISegmentControl</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>UIView</t>
+  </si>
+  <si>
+    <t>toolbar</t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>UIToolbar</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>click event</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>TouchUpInside</t>
+  </si>
+  <si>
+    <t>dialogs</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Snackbar</t>
+  </si>
+  <si>
+    <t>AlertDialog</t>
+  </si>
+  <si>
+    <t>UIAlertController</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>onCreate()</t>
+  </si>
+  <si>
+    <t>onStart()</t>
+  </si>
+  <si>
+    <t>onResume()</t>
+  </si>
+  <si>
+    <t>onPause()</t>
+  </si>
+  <si>
+    <t>onStop()</t>
+  </si>
+  <si>
+    <t>onDestroy()</t>
+  </si>
+  <si>
+    <t>onRestart()</t>
+  </si>
+  <si>
+    <t>first method to be called upon creation</t>
+  </si>
+  <si>
+    <t>viewDidLoad()</t>
+  </si>
+  <si>
+    <t>method gets called when the UI starts loading in Window</t>
+  </si>
+  <si>
+    <t>method gets called when UI finishes loading</t>
+  </si>
+  <si>
+    <t>viewWillAppear()</t>
+  </si>
+  <si>
+    <t>viewDidAppear()</t>
+  </si>
+  <si>
+    <t>method gets called when UI starts going in background</t>
+  </si>
+  <si>
+    <t>method gets called when UI completes background transition</t>
+  </si>
+  <si>
+    <t>viewWillDisappear()</t>
+  </si>
+  <si>
+    <t>viewDidDisappear()</t>
+  </si>
+  <si>
+    <t>method gets called when the object is about to get destroyed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>method gets called when activity goes to foreground from background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,8 +484,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,17 +801,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFC823D-AFB5-0649-8592-414F32087CCD}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="327" zoomScaleNormal="327" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="244" zoomScaleNormal="327" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -544,35 +881,493 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6146B-437F-3742-89E6-38F40D12A93D}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MyData/Sunbeam/2024/mar/dmc/ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F68F9-106D-0943-BD6F-5FBA16F85AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AAB5C-EDD6-CF4E-ACE7-C17176CE4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{B97E78EE-7FEF-FB4E-88A4-5B4AE491459B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>Feature</t>
   </si>
@@ -441,6 +441,33 @@
   </si>
   <si>
     <t>method gets called when activity goes to foreground from background</t>
+  </si>
+  <si>
+    <t>Application class</t>
+  </si>
+  <si>
+    <t>UIApplication</t>
+  </si>
+  <si>
+    <t>.xcdatamodeld</t>
+  </si>
+  <si>
+    <t>xcode data model definition</t>
+  </si>
+  <si>
+    <t>.xcworkspace</t>
+  </si>
+  <si>
+    <t>xocde workspace (collection of multiple xcode projects)</t>
+  </si>
+  <si>
+    <t>FCM (Firebase Cloud Messaging)</t>
+  </si>
+  <si>
+    <t>remote notification</t>
+  </si>
+  <si>
+    <t>APNS (Apple Push Notification Service)</t>
   </si>
 </sst>
 </file>
@@ -801,16 +828,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFC823D-AFB5-0649-8592-414F32087CCD}">
-  <dimension ref="B2:D50"/>
+  <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="244" zoomScaleNormal="327" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="244" zoomScaleNormal="327" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -881,131 +908,131 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1013,21 +1040,21 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -1035,139 +1062,142 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>69</v>
@@ -1175,108 +1205,127 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>107</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1287,14 +1336,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6146B-437F-3742-89E6-38F40D12A93D}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1370,6 +1420,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MyData/Sunbeam/2024/mar/dmc/ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AAB5C-EDD6-CF4E-ACE7-C17176CE4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013095FC-9C1D-9949-AADB-1B8275195ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{B97E78EE-7FEF-FB4E-88A4-5B4AE491459B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>Feature</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>APNS (Apple Push Notification Service)</t>
+  </si>
+  <si>
+    <t>value changed event</t>
+  </si>
+  <si>
+    <t>onChange</t>
+  </si>
+  <si>
+    <t>ValueChange</t>
   </si>
 </sst>
 </file>
@@ -828,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFC823D-AFB5-0649-8592-414F32087CCD}">
-  <dimension ref="B2:D55"/>
+  <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="244" zoomScaleNormal="327" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="244" zoomScaleNormal="327" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,96 +1244,107 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>114</v>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>142</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>141</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>143</v>
       </c>
     </row>
